--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -473,10 +473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -509,7 +509,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -523,8 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,15 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +562,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -576,8 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,39 +617,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,13 +647,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,121 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +701,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,19 +761,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +838,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -860,81 +934,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,142 +944,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,7 +1434,7 @@
     <col min="4" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="19.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="18.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="17.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="16.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="14.4166666666667" customWidth="1"/>
     <col min="13" max="13" width="21.5833333333333" customWidth="1"/>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>效果id</t>
   </si>
@@ -30,6 +30,9 @@
     <t>羁绊icon</t>
   </si>
   <si>
+    <t>羁绊id</t>
+  </si>
+  <si>
     <t>{效果id}</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>relationicon</t>
   </si>
   <si>
+    <t>relationid</t>
+  </si>
+  <si>
     <t>schinese</t>
   </si>
   <si>
@@ -111,28 +117,10 @@
     <t>羁绊表</t>
   </si>
   <si>
-    <t>羁绊激活时获得词条</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>英雄id</t>
-  </si>
-  <si>
     <t>字段</t>
   </si>
   <si>
     <t>building_combination_ability</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>upgrades_id</t>
-  </si>
-  <si>
-    <t>target_type</t>
   </si>
   <si>
     <t>type</t>
@@ -474,8 +462,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -495,32 +483,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,24 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,54 +526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -624,6 +542,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -631,8 +565,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,31 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +659,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,103 +695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,6 +714,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,65 +826,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -934,7 +863,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,10 +932,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,133 +944,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1420,27 +1408,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="10.8333333333333" customWidth="1"/>
-    <col min="4" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="19.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="16.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="19.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.8333333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,16 +1439,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1480,152 +1469,172 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE(B3,"_",H3,"_",K3)</f>
+        <f>CONCATENATE(B3,"_",I3,"_",L3)</f>
         <v>warframe_3_ursa</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>CONCATENATE(B3,I3)</f>
+        <v>warframe3</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="str">
+        <f>CONCATENATE(B4,"_",I4,"_",L4)</f>
+        <v>warframe_6_ursa</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="str">
-        <f>CONCATENATE(B4,"_",H4,"_",K4)</f>
-        <v>warframe_6_ursa</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>CONCATENATE(B4,I4)</f>
+        <v>warframe6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="str">
+        <f>CONCATENATE(B5,"_",I5,"_",L5)</f>
+        <v>warframe_9_ursa</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>CONCATENATE(B5,I5)</f>
+        <v>warframe9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="str">
-        <f>CONCATENATE(B5,"_",H5,"_",K5)</f>
-        <v>warframe_9_ursa</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>26</v>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1637,25 +1646,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="9" width="19.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="11" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1664,1078 +1677,1094 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="I111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="K111" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2752,584 +2781,584 @@
       <selection activeCell="B104" sqref="B104:B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" hidden="1"/>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" hidden="1"/>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" hidden="1"/>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>效果id</t>
   </si>
@@ -102,6 +102,9 @@
     <t>步步为营</t>
   </si>
   <si>
+    <t>modifier_phy_arm_base_3</t>
+  </si>
+  <si>
     <t>ursa</t>
   </si>
   <si>
@@ -109,6 +112,12 @@
   </si>
   <si>
     <t>比比皆是</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_6</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_9</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -461,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -483,14 +492,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,23 +589,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,8 +611,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,78 +627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +644,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,49 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,37 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +835,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,55 +920,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,149 +941,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1088,6 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1410,11 +1422,11 @@
   <sheetPr/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
@@ -1422,10 +1434,10 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="8" width="8.75" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="19.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="23.0833333333333" customWidth="1"/>
     <col min="11" max="11" width="17.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="16.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
     <col min="14" max="14" width="21.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,16 +1557,18 @@
       <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>10001</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1573,13 +1587,13 @@
         <v>warframe6</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1587,14 +1601,16 @@
       <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1613,13 +1629,13 @@
         <v>warframe9</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1627,14 +1643,16 @@
       <c r="I5" s="2">
         <v>9</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1648,11 +1666,11 @@
   <sheetPr/>
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="3" width="19.75" customWidth="1"/>
@@ -1665,10 +1683,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1703,10 +1721,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1741,51 +1759,51 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2781,7 +2799,7 @@
       <selection activeCell="B104" sqref="B104:B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
@@ -2791,574 +2809,574 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" hidden="1"/>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" hidden="1"/>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" hidden="1"/>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="176">
   <si>
     <t>效果id</t>
   </si>
@@ -51,105 +51,183 @@
     <t>备注羁绊对应单位</t>
   </si>
   <si>
+    <t>羁绊对应英雄</t>
+  </si>
+  <si>
+    <t>羁绊对应技能道具ID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>relationicon</t>
+  </si>
+  <si>
+    <t>relationid</t>
+  </si>
+  <si>
+    <t>schinese</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>active_count</t>
+  </si>
+  <si>
+    <t>acitve_common_effect</t>
+  </si>
+  <si>
+    <t>acitve_special_effect</t>
+  </si>
+  <si>
+    <t>Abilityid</t>
+  </si>
+  <si>
+    <t>phyarm_up</t>
+  </si>
+  <si>
+    <t>warframe</t>
+  </si>
+  <si>
+    <t>加甲流</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_3</t>
+  </si>
+  <si>
+    <t>ursa</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>ability1_ursa_earthshock</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_6</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_9</t>
+  </si>
+  <si>
+    <t>kunkka</t>
+  </si>
+  <si>
+    <t>船长</t>
+  </si>
+  <si>
+    <t>tusk</t>
+  </si>
+  <si>
+    <t>海民</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>父王</t>
+  </si>
+  <si>
+    <t>juggernaut</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>troll_warlord</t>
+  </si>
+  <si>
+    <t>巨魔战将</t>
+  </si>
+  <si>
+    <t>slardar</t>
+  </si>
+  <si>
+    <t>大鱼</t>
+  </si>
+  <si>
+    <t>sven</t>
+  </si>
+  <si>
+    <t>斯温</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>马尔斯</t>
+  </si>
+  <si>
+    <t>primal_beast</t>
+  </si>
+  <si>
+    <t>獸</t>
+  </si>
+  <si>
+    <t>skeleton_king</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
+  </si>
+  <si>
+    <t>pudge</t>
+  </si>
+  <si>
+    <t>屠夫</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>羁绊表</t>
+  </si>
+  <si>
     <t>羁绊对应英雄id</t>
   </si>
   <si>
-    <t>羁绊对应技能道具ID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>relationicon</t>
-  </si>
-  <si>
-    <t>relationid</t>
-  </si>
-  <si>
-    <t>schinese</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>russian</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>active_count</t>
-  </si>
-  <si>
-    <t>acitve_common_effect</t>
-  </si>
-  <si>
-    <t>acitve_special_effect</t>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>building_combination_ability</t>
   </si>
   <si>
     <t>heroid</t>
   </si>
   <si>
-    <t>Abilityid</t>
-  </si>
-  <si>
-    <t>warframe</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
   <si>
     <t>步步为营</t>
   </si>
   <si>
-    <t>modifier_phy_arm_base_3</t>
-  </si>
-  <si>
-    <t>ursa</t>
-  </si>
-  <si>
-    <t>ability1_ursa_earthshock</t>
-  </si>
-  <si>
     <t>比比皆是</t>
   </si>
   <si>
-    <t>modifier_phy_arm_base_6</t>
-  </si>
-  <si>
-    <t>modifier_phy_arm_base_9</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>羁绊表</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>building_combination_ability</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>楚楚动人</t>
   </si>
   <si>
@@ -183,6 +261,9 @@
     <t>咄咄逼人</t>
   </si>
   <si>
+    <t>斧王</t>
+  </si>
+  <si>
     <t>津津乐道</t>
   </si>
   <si>
@@ -202,6 +283,9 @@
   </si>
   <si>
     <t>循循善诱</t>
+  </si>
+  <si>
+    <t>斯文</t>
   </si>
   <si>
     <t>郁郁寡欢</t>
@@ -475,7 +559,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,26 +575,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="15"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -521,8 +595,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -530,25 +612,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,53 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,9 +649,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,42 +737,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -692,7 +752,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +794,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,25 +848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +866,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,54 +896,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -838,17 +934,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,6 +985,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -887,21 +1048,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -912,15 +1058,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,10 +1078,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,138 +1090,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1095,12 +1241,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1420,242 +1573,1559 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="8" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="24.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="8" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="23.0833333333333" customWidth="1"/>
+    <col min="10" max="10" width="23.0833333333333" style="8" customWidth="1"/>
     <col min="11" max="11" width="17.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="16.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
     <col min="14" max="14" width="21.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="str">
+        <f t="shared" ref="A3:A38" si="0">CONCATENATE(B3,"_",I3,"_",L3)</f>
+        <v>phyarm_up_3_ursa</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="str">
-        <f>CONCATENATE(B3,"_",I3,"_",L3)</f>
-        <v>warframe_3_ursa</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D38" si="1">CONCATENATE(B3,"_",I3)</f>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_ursa</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f>CONCATENATE(B3,I3)</f>
-        <v>warframe3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_ursa</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" spans="1:13">
+      <c r="A6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_kunkka</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="str">
-        <f>CONCATENATE(B4,"_",I4,"_",L4)</f>
-        <v>warframe_6_ursa</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="L6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" spans="1:13">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_kunkka</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" ht="19.5" spans="1:13">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_kunkka</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f>CONCATENATE(B4,I4)</f>
-        <v>warframe6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_tusk</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_tusk</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="str">
-        <f>CONCATENATE(B5,"_",I5,"_",L5)</f>
-        <v>warframe_9_ursa</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_tusk</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" ht="19.5" spans="1:13">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_axe</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f>CONCATENATE(B5,I5)</f>
-        <v>warframe9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" ref="H12:H41" si="2">H9+1</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" spans="1:13">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_axe</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="5">
+        <v>6</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" ht="19.5" spans="1:13">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_axe</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="5">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" ht="19.5" spans="1:13">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_juggernaut</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" spans="1:13">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_juggernaut</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" ht="19.5" spans="1:13">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_juggernaut</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>9</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_troll_warlord</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_troll_warlord</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_troll_warlord</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>9</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_slardar</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_slardar</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="5">
+        <v>6</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_slardar</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>9</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_sven</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_sven</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="5">
+        <v>6</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_sven</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="5">
+        <v>9</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:13">
+      <c r="A27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_mars</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" spans="1:13">
+      <c r="A28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_mars</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I28" s="5">
+        <v>6</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" ht="19.5" spans="1:13">
+      <c r="A29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_mars</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I29" s="5">
+        <v>9</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" ht="15.5" spans="1:13">
+      <c r="A30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_primal_beast</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:13">
+      <c r="A31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_primal_beast</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="5">
+        <v>6</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" ht="15.5" spans="1:13">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_primal_beast</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="5">
+        <v>9</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_skeleton_king</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I33" s="5">
+        <v>3</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_skeleton_king</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I34" s="5">
+        <v>6</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_skeleton_king</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="5">
+        <v>9</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" ht="19.5" spans="1:13">
+      <c r="A36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3_pudge</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="5">
+        <v>3</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" spans="1:13">
+      <c r="A37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6_pudge</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" ht="19.5" spans="1:13">
+      <c r="A38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9_pudge</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I38" s="5">
+        <v>9</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="M36:M38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1682,1107 +3152,1107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
+      <c r="A1" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
+      <c r="A2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="K111" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2793,590 +4263,641 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:B151"/>
+  <dimension ref="B2:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:B151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="8:8">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" hidden="1" spans="8:8">
+      <c r="H23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="30" hidden="1" spans="8:8">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" hidden="1"/>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" hidden="1"/>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" hidden="1"/>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>68</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3494,6 +5015,20 @@
     </filterColumn>
     <extLst/>
   </autoFilter>
+  <mergeCells count="12">
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="187">
   <si>
     <t>效果id</t>
   </si>
@@ -126,64 +126,97 @@
     <t>船长</t>
   </si>
   <si>
+    <t>ability1_kunkka_torrent</t>
+  </si>
+  <si>
     <t>tusk</t>
   </si>
   <si>
     <t>海民</t>
   </si>
   <si>
+    <t>ability1_tusk_ice_shards</t>
+  </si>
+  <si>
     <t>axe</t>
   </si>
   <si>
     <t>父王</t>
   </si>
   <si>
+    <t>ability1_axe_berserkers_call</t>
+  </si>
+  <si>
     <t>juggernaut</t>
   </si>
   <si>
     <t>剑圣</t>
   </si>
   <si>
+    <t>ability1_juggernaut_blade_fury</t>
+  </si>
+  <si>
     <t>troll_warlord</t>
   </si>
   <si>
     <t>巨魔战将</t>
   </si>
   <si>
+    <t>ability1_troll_warlord_berserkers_rage</t>
+  </si>
+  <si>
     <t>slardar</t>
   </si>
   <si>
     <t>大鱼</t>
   </si>
   <si>
+    <t>ability1_slardar_sprint</t>
+  </si>
+  <si>
     <t>sven</t>
   </si>
   <si>
     <t>斯温</t>
   </si>
   <si>
+    <t>ability1_sven_storm_bolt</t>
+  </si>
+  <si>
     <t>mars</t>
   </si>
   <si>
     <t>马尔斯</t>
   </si>
   <si>
+    <t>ability1_mars_spear</t>
+  </si>
+  <si>
     <t>primal_beast</t>
   </si>
   <si>
     <t>獸</t>
   </si>
   <si>
+    <t>ability1_primal_beast_onslaught</t>
+  </si>
+  <si>
     <t>skeleton_king</t>
   </si>
   <si>
     <t>骷髅王</t>
   </si>
   <si>
+    <t>ability1_skeleton_king_hellfire_blast</t>
+  </si>
+  <si>
     <t>pudge</t>
   </si>
   <si>
     <t>屠夫</t>
+  </si>
+  <si>
+    <t>ability1_pudge_meat_hook</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -554,12 +587,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,75 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF4FC1FF"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,8 +629,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,16 +653,69 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +729,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -710,7 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,10 +751,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -737,150 +765,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -896,7 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +798,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,30 +1004,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1041,8 +1045,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,27 +1100,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,133 +1118,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,10 +1278,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1575,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1680,7 +1710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" ht="15.5" spans="1:14">
       <c r="A3" s="5" t="str">
         <f t="shared" ref="A3:A38" si="0">CONCATENATE(B3,"_",I3,"_",L3)</f>
         <v>phyarm_up_3_ursa</v>
@@ -1720,11 +1750,11 @@
       <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" ht="15.5" spans="1:14">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_ursa</v>
@@ -1762,11 +1792,11 @@
         <v>28</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" ht="15.5" spans="1:14">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_ursa</v>
@@ -1804,11 +1834,11 @@
         <v>28</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="19.5" spans="1:13">
+    <row r="6" ht="15.5" spans="1:14">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_kunkka</v>
@@ -1841,14 +1871,17 @@
       <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" ht="19.5" spans="1:13">
+      <c r="N6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" spans="1:14">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_kunkka</v>
@@ -1881,12 +1914,15 @@
       <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" ht="19.5" spans="1:13">
+      <c r="N7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:14">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_kunkka</v>
@@ -1919,12 +1955,15 @@
       <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:14">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_tusk</v>
@@ -1957,14 +1996,17 @@
       <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
-        <v>35</v>
+      <c r="L9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:14">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_tusk</v>
@@ -1997,12 +2039,15 @@
       <c r="J10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
-        <v>35</v>
+      <c r="L10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:14">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_tusk</v>
@@ -2035,12 +2080,15 @@
       <c r="J11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
-        <v>35</v>
+      <c r="L11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" ht="19.5" spans="1:13">
+      <c r="N11" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:14">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_axe</v>
@@ -2074,14 +2122,17 @@
       <c r="J12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>37</v>
+      <c r="L12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="19.5" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" spans="1:14">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_axe</v>
@@ -2115,12 +2166,15 @@
       <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>37</v>
+      <c r="L13" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" ht="19.5" spans="1:13">
+      <c r="N13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="1:14">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_axe</v>
@@ -2154,12 +2208,15 @@
       <c r="J14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>37</v>
+      <c r="L14" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" ht="19.5" spans="1:13">
+      <c r="N14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:14">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_juggernaut</v>
@@ -2193,14 +2250,17 @@
       <c r="J15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>39</v>
+      <c r="L15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:14">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_juggernaut</v>
@@ -2234,12 +2294,15 @@
       <c r="J16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>39</v>
+      <c r="L16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" ht="19.5" spans="1:13">
+      <c r="N16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:14">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_juggernaut</v>
@@ -2273,12 +2336,15 @@
       <c r="J17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>39</v>
+      <c r="L17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:14">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_troll_warlord</v>
@@ -2312,14 +2378,17 @@
       <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L18" t="s">
-        <v>41</v>
+      <c r="L18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="15.5" spans="1:14">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_troll_warlord</v>
@@ -2353,12 +2422,15 @@
       <c r="J19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L19" t="s">
-        <v>41</v>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="1:14">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_troll_warlord</v>
@@ -2392,12 +2464,15 @@
       <c r="J20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L20" t="s">
-        <v>41</v>
+      <c r="L20" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="1:14">
       <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_slardar</v>
@@ -2431,14 +2506,17 @@
       <c r="J21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="s">
-        <v>43</v>
+      <c r="L21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" spans="1:14">
       <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_slardar</v>
@@ -2472,12 +2550,15 @@
       <c r="J22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L22" t="s">
-        <v>43</v>
+      <c r="L22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:14">
       <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_slardar</v>
@@ -2511,12 +2592,15 @@
       <c r="J23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L23" t="s">
-        <v>43</v>
+      <c r="L23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" spans="1:14">
       <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_sven</v>
@@ -2550,14 +2634,17 @@
       <c r="J24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L24" t="s">
-        <v>45</v>
+      <c r="L24" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" ht="15.5" spans="1:14">
       <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_sven</v>
@@ -2591,12 +2678,15 @@
       <c r="J25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L25" t="s">
-        <v>45</v>
+      <c r="L25" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:14">
       <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_sven</v>
@@ -2630,12 +2720,15 @@
       <c r="J26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L26" t="s">
-        <v>45</v>
+      <c r="L26" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="M26" s="5"/>
-    </row>
-    <row r="27" ht="19.5" spans="1:13">
+      <c r="N26" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:14">
       <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_mars</v>
@@ -2669,14 +2762,17 @@
       <c r="J27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>47</v>
+      <c r="L27" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" spans="1:13">
+        <v>55</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:14">
       <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_mars</v>
@@ -2710,12 +2806,15 @@
       <c r="J28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>47</v>
+      <c r="L28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="M28" s="5"/>
-    </row>
-    <row r="29" ht="19.5" spans="1:13">
+      <c r="N28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:14">
       <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_mars</v>
@@ -2749,12 +2848,15 @@
       <c r="J29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>47</v>
+      <c r="L29" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="M29" s="5"/>
-    </row>
-    <row r="30" ht="15.5" spans="1:13">
+      <c r="N29" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:14">
       <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_primal_beast</v>
@@ -2788,14 +2890,17 @@
       <c r="J30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>49</v>
+      <c r="L30" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="1:13">
+        <v>58</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:14">
       <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_primal_beast</v>
@@ -2829,12 +2934,15 @@
       <c r="J31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>49</v>
+      <c r="L31" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="M31" s="5"/>
-    </row>
-    <row r="32" ht="15.5" spans="1:13">
+      <c r="N31" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:14">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_primal_beast</v>
@@ -2868,12 +2976,15 @@
       <c r="J32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>49</v>
+      <c r="L32" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:14">
       <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_skeleton_king</v>
@@ -2907,14 +3018,17 @@
       <c r="J33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L33" t="s">
-        <v>51</v>
+      <c r="L33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>61</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="1:14">
       <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_skeleton_king</v>
@@ -2948,12 +3062,15 @@
       <c r="J34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L34" t="s">
-        <v>51</v>
+      <c r="L34" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:14">
       <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_skeleton_king</v>
@@ -2987,12 +3104,15 @@
       <c r="J35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L35" t="s">
-        <v>51</v>
+      <c r="L35" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="M35" s="5"/>
-    </row>
-    <row r="36" ht="19.5" spans="1:13">
+      <c r="N35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:14">
       <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_pudge</v>
@@ -3026,14 +3146,17 @@
       <c r="J36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>53</v>
+      <c r="L36" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" spans="1:13">
+        <v>64</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:14">
       <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_pudge</v>
@@ -3067,12 +3190,15 @@
       <c r="J37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="11" t="s">
-        <v>53</v>
+      <c r="L37" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="M37" s="5"/>
-    </row>
-    <row r="38" ht="19.5" spans="1:13">
+      <c r="N37" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:14">
       <c r="A38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_pudge</v>
@@ -3106,10 +3232,13 @@
       <c r="J38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>53</v>
+      <c r="L38" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="M38" s="5"/>
+      <c r="N38" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3153,10 +3282,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -3183,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
@@ -3191,10 +3320,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -3221,7 +3350,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>23</v>
@@ -3229,51 +3358,51 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -4274,43 +4403,43 @@
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>29</v>
@@ -4318,13 +4447,13 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>34</v>
@@ -4332,16 +4461,16 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="8:8">
@@ -4349,91 +4478,91 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" hidden="1" spans="8:8">
       <c r="H23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="8:8">
@@ -4441,463 +4570,463 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -587,10 +587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -629,16 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,7 +654,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,31 +730,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,41 +751,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -768,7 +768,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,67 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,85 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,6 +1003,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1014,21 +1029,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1051,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,26 +1071,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,151 +1089,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1605,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="189">
   <si>
     <t>效果id</t>
   </si>
@@ -33,7 +33,10 @@
     <t>羁绊id</t>
   </si>
   <si>
-    <t>{效果id}</t>
+    <t>{羁绊名称}</t>
+  </si>
+  <si>
+    <t>{羁绊id}_Des</t>
   </si>
   <si>
     <t>羁绊索引</t>
@@ -90,6 +93,9 @@
     <t>acitve_special_effect</t>
   </si>
   <si>
+    <t>heroid</t>
+  </si>
+  <si>
     <t>Abilityid</t>
   </si>
   <si>
@@ -102,10 +108,13 @@
     <t>加甲流</t>
   </si>
   <si>
+    <t>加甲流可以是英雄的护甲提升。</t>
+  </si>
+  <si>
     <t>modifier_phy_arm_base_3</t>
   </si>
   <si>
-    <t>ursa</t>
+    <t>building_hero_ursa</t>
   </si>
   <si>
     <t>熊战士</t>
@@ -120,7 +129,7 @@
     <t>modifier_phy_arm_base_9</t>
   </si>
   <si>
-    <t>kunkka</t>
+    <t>building_hero_kunkka</t>
   </si>
   <si>
     <t>船长</t>
@@ -129,7 +138,7 @@
     <t>ability1_kunkka_torrent</t>
   </si>
   <si>
-    <t>tusk</t>
+    <t>building_hero_tusk</t>
   </si>
   <si>
     <t>海民</t>
@@ -138,7 +147,7 @@
     <t>ability1_tusk_ice_shards</t>
   </si>
   <si>
-    <t>axe</t>
+    <t>building_hero_axe</t>
   </si>
   <si>
     <t>父王</t>
@@ -147,7 +156,7 @@
     <t>ability1_axe_berserkers_call</t>
   </si>
   <si>
-    <t>juggernaut</t>
+    <t>building_hero_juggernaut</t>
   </si>
   <si>
     <t>剑圣</t>
@@ -156,7 +165,7 @@
     <t>ability1_juggernaut_blade_fury</t>
   </si>
   <si>
-    <t>troll_warlord</t>
+    <t>building_hero_troll_warlord</t>
   </si>
   <si>
     <t>巨魔战将</t>
@@ -165,7 +174,7 @@
     <t>ability1_troll_warlord_berserkers_rage</t>
   </si>
   <si>
-    <t>slardar</t>
+    <t>building_hero_slardar</t>
   </si>
   <si>
     <t>大鱼</t>
@@ -174,7 +183,7 @@
     <t>ability1_slardar_sprint</t>
   </si>
   <si>
-    <t>sven</t>
+    <t>building_hero_sven</t>
   </si>
   <si>
     <t>斯温</t>
@@ -183,7 +192,7 @@
     <t>ability1_sven_storm_bolt</t>
   </si>
   <si>
-    <t>mars</t>
+    <t>building_hero_mars</t>
   </si>
   <si>
     <t>马尔斯</t>
@@ -192,7 +201,7 @@
     <t>ability1_mars_spear</t>
   </si>
   <si>
-    <t>primal_beast</t>
+    <t>building_hero_primal_beast</t>
   </si>
   <si>
     <t>獸</t>
@@ -201,7 +210,7 @@
     <t>ability1_primal_beast_onslaught</t>
   </si>
   <si>
-    <t>skeleton_king</t>
+    <t>building_hero_skeleton_king</t>
   </si>
   <si>
     <t>骷髅王</t>
@@ -210,7 +219,7 @@
     <t>ability1_skeleton_king_hellfire_blast</t>
   </si>
   <si>
-    <t>pudge</t>
+    <t>building_hero_pudge</t>
   </si>
   <si>
     <t>屠夫</t>
@@ -232,9 +241,6 @@
   </si>
   <si>
     <t>building_combination_ability</t>
-  </si>
-  <si>
-    <t>heroid</t>
   </si>
   <si>
     <t>type</t>
@@ -587,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -616,6 +622,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -623,38 +636,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,33 +673,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,8 +703,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,6 +741,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -765,36 +771,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -816,7 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,37 +828,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,24 +955,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,16 +1009,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1035,8 +1059,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1046,30 +1072,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1089,27 +1106,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1124,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,7 +1276,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,31 +1615,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.3333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="23.0833333333333" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="16.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="10" width="11.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="23.0833333333333" style="9" customWidth="1"/>
+    <col min="14" max="14" width="17.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="25.1666666666667" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.4166666666667" customWidth="1"/>
+    <col min="17" max="17" width="36.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1639,1621 +1651,1359 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:14">
-      <c r="A3" s="5" t="str">
-        <f t="shared" ref="A3:A38" si="0">CONCATENATE(B3,"_",I3,"_",L3)</f>
-        <v>phyarm_up_3_ursa</v>
+      <c r="O2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="15.5" spans="1:17">
+      <c r="A3" s="10" t="str">
+        <f>CONCATENATE(B3,"_",L3,"_",O3)</f>
+        <v>phyarm_up_3_building_hero_ursa</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D38" si="1">CONCATENATE(B3,"_",I3)</f>
+        <f t="shared" ref="D3:D38" si="0">CONCATENATE(B3,"_",L3)</f>
         <v>phyarm_up_3</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="15.5" spans="1:17">
+      <c r="A4" s="10" t="str">
+        <f>CONCATENATE(B4,"_",L4,"_",O4)</f>
+        <v>phyarm_up_6_building_hero_ursa</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" spans="1:17">
+      <c r="A5" s="10" t="str">
+        <f>CONCATENATE(B5,"_",L5,"_",O5)</f>
+        <v>phyarm_up_9_building_hero_ursa</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="15.5" spans="1:17">
+      <c r="A6" s="10" t="str">
+        <f>CONCATENATE(B6,"_",L6,"_",O6)</f>
+        <v>phyarm_up_3_building_hero_kunkka</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="M6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" spans="1:17">
+      <c r="A7" s="10" t="str">
+        <f>CONCATENATE(B7,"_",L7,"_",O7)</f>
+        <v>phyarm_up_6_building_hero_kunkka</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:17">
+      <c r="A8" s="10" t="str">
+        <f>CONCATENATE(B8,"_",L8,"_",O8)</f>
+        <v>phyarm_up_9_building_hero_kunkka</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:17">
+      <c r="A9" s="10" t="str">
+        <f>CONCATENATE(B9,"_",L9,"_",O9)</f>
+        <v>phyarm_up_3_building_hero_tusk</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:14">
-      <c r="A4" s="5" t="str">
+      <c r="N9" s="5"/>
+      <c r="O9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" spans="1:17">
+      <c r="A10" s="10" t="str">
+        <f>CONCATENATE(B10,"_",L10,"_",O10)</f>
+        <v>phyarm_up_6_building_hero_tusk</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>phyarm_up_6_ursa</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="str">
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:17">
+      <c r="A11" s="10" t="str">
+        <f>CONCATENATE(B11,"_",L11,"_",O11)</f>
+        <v>phyarm_up_9_building_hero_tusk</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:17">
+      <c r="A12" s="10" t="str">
+        <f>CONCATENATE(B12,"_",L12,"_",O12)</f>
+        <v>phyarm_up_3_building_hero_axe</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" ref="K12:K41" si="1">K9+1</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" spans="1:17">
+      <c r="A13" s="10" t="str">
+        <f t="shared" ref="A13:A38" si="2">CONCATENATE(B13,"_",L13,"_",O13)</f>
+        <v>phyarm_up_6_building_hero_axe</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="1:17">
+      <c r="A14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_axe</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>9</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:17">
+      <c r="A15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_juggernaut</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:17">
+      <c r="A16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_juggernaut</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>phyarm_up_6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K16" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:17">
+      <c r="A17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_juggernaut</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>9</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:17">
+      <c r="A18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_troll_warlord</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="15.5" spans="1:17">
+      <c r="A19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_troll_warlord</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="11" t="s">
+      <c r="L19" s="5">
+        <v>6</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="1:17">
+      <c r="A20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_troll_warlord</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
+        <v>9</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="1:17">
+      <c r="A21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_slardar</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:14">
-      <c r="A5" s="5" t="str">
+      <c r="N21" s="5"/>
+      <c r="O21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="15.5" spans="1:17">
+      <c r="A22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_slardar</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>phyarm_up_9_ursa</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K22" s="9">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="5">
+        <v>6</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:17">
+      <c r="A23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_slardar</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>phyarm_up_9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K23" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" spans="1:17">
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_sven</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" ht="15.5" spans="1:17">
+      <c r="A25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_sven</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:17">
+      <c r="A26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_sven</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L26" s="5">
         <v>9</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="11" t="s">
+      <c r="M26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:17">
+      <c r="A27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_mars</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L27" s="5">
+        <v>3</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" ht="15.5" spans="1:14">
-      <c r="A6" s="5" t="str">
+      <c r="N27" s="5"/>
+      <c r="O27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:17">
+      <c r="A28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_mars</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>phyarm_up_3_kunkka</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="str">
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K28" s="9">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L28" s="5">
+        <v>6</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:17">
+      <c r="A29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_mars</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L29" s="5">
+        <v>9</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:17">
+      <c r="A30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_primal_beast</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>phyarm_up_3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K30" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="1:17">
+      <c r="A31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_primal_beast</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L31" s="5">
+        <v>6</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:17">
+      <c r="A32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_primal_beast</v>
+      </c>
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L32" s="5">
+        <v>9</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:17">
+      <c r="A33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_skeleton_king</v>
+      </c>
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L33" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="M33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="1:17">
+      <c r="A34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_skeleton_king</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="D34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_6</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L34" s="5">
+        <v>6</v>
+      </c>
+      <c r="M34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:17">
+      <c r="A35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_skeleton_king</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L35" s="5">
+        <v>9</v>
+      </c>
+      <c r="M35" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" ht="15.5" spans="1:14">
-      <c r="A7" s="5" t="str">
+      <c r="N35" s="5"/>
+      <c r="O35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:17">
+      <c r="A36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_3_building_hero_pudge</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>phyarm_up_6_kunkka</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="str">
+        <v>phyarm_up_3</v>
+      </c>
+      <c r="K36" s="9">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L36" s="5">
+        <v>3</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="1:17">
+      <c r="A37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_6_building_hero_pudge</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>phyarm_up_6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K37" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L37" s="5">
+        <v>6</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:17">
+      <c r="A38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>phyarm_up_9_building_hero_pudge</v>
+      </c>
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="12" t="s">
+      <c r="C38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>phyarm_up_9</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L38" s="5">
+        <v>9</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" ht="15.5" spans="1:14">
-      <c r="A8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_kunkka</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>9</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="15.5" spans="1:14">
-      <c r="A9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_tusk</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="15.5" spans="1:14">
-      <c r="A10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_tusk</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="8">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="15.5" spans="1:14">
-      <c r="A11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_tusk</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>9</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="15.5" spans="1:14">
-      <c r="A12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_axe</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" ref="H12:H41" si="2">H9+1</f>
-        <v>4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>3</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" ht="15.5" spans="1:14">
-      <c r="A13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_axe</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I13" s="5">
-        <v>6</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="15.5" spans="1:14">
-      <c r="A14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_axe</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I14" s="5">
-        <v>9</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="15.5" spans="1:14">
-      <c r="A15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_juggernaut</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="15.5" spans="1:14">
-      <c r="A16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_juggernaut</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <v>6</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="15.5" spans="1:14">
-      <c r="A17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_juggernaut</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="5">
-        <v>9</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" ht="15.5" spans="1:14">
-      <c r="A18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_troll_warlord</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I18" s="5">
-        <v>3</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="15.5" spans="1:14">
-      <c r="A19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_troll_warlord</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I19" s="5">
-        <v>6</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" ht="15.5" spans="1:14">
-      <c r="A20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_troll_warlord</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I20" s="5">
-        <v>9</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" ht="15.5" spans="1:14">
-      <c r="A21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_slardar</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I21" s="5">
-        <v>3</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" ht="15.5" spans="1:14">
-      <c r="A22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_slardar</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I22" s="5">
-        <v>6</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" ht="15.5" spans="1:14">
-      <c r="A23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_slardar</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I23" s="5">
-        <v>9</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="15.5" spans="1:14">
-      <c r="A24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_sven</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="15.5" spans="1:14">
-      <c r="A25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_sven</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I25" s="5">
-        <v>6</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="15.5" spans="1:14">
-      <c r="A26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_sven</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I26" s="5">
-        <v>9</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" ht="15.5" spans="1:14">
-      <c r="A27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_mars</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:14">
-      <c r="A28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_mars</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I28" s="5">
-        <v>6</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="1:14">
-      <c r="A29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_mars</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I29" s="5">
-        <v>9</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="1:14">
-      <c r="A30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_primal_beast</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" ht="15.5" spans="1:14">
-      <c r="A31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_primal_beast</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I31" s="5">
-        <v>6</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" ht="15.5" spans="1:14">
-      <c r="A32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_primal_beast</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I32" s="5">
-        <v>9</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="1:14">
-      <c r="A33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_skeleton_king</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I33" s="5">
-        <v>3</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" ht="15.5" spans="1:14">
-      <c r="A34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_skeleton_king</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I34" s="5">
-        <v>6</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" ht="15.5" spans="1:14">
-      <c r="A35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_skeleton_king</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I35" s="5">
-        <v>9</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" ht="15.5" spans="1:14">
-      <c r="A36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_3_pudge</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I36" s="5">
-        <v>3</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" ht="15.5" spans="1:14">
-      <c r="A37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_6_pudge</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I37" s="5">
-        <v>6</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" ht="15.5" spans="1:14">
-      <c r="A38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>phyarm_up_9_pudge</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>phyarm_up_9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I38" s="5">
-        <v>9</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="12" t="s">
-        <v>65</v>
+      <c r="N38" s="5"/>
+      <c r="O38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="P36:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3265,8 +3015,8 @@
   <sheetPr/>
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -3282,10 +3032,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -3300,136 +3050,136 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4403,74 +4153,74 @@
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="8:8">
@@ -4478,91 +4228,91 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" hidden="1" spans="8:8">
       <c r="H23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="8:8">
@@ -4570,463 +4320,463 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="188">
   <si>
     <t>效果id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>激活时特殊词条</t>
   </si>
   <si>
-    <t>备注羁绊对应单位</t>
+    <t>羁绊对应英雄id</t>
   </si>
   <si>
     <t>羁绊对应英雄</t>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>羁绊表</t>
-  </si>
-  <si>
-    <t>羁绊对应英雄id</t>
   </si>
   <si>
     <t>字段</t>
@@ -593,10 +590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -622,14 +619,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,92 +640,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +664,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,8 +701,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +771,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,91 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,79 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,11 +1006,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,41 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1092,17 +1084,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,10 +1109,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,133 +1121,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1618,10 +1615,10 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35.3333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
@@ -1742,9 +1739,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:17">
+    <row r="3" ht="15.75" spans="1:17">
       <c r="A3" s="10" t="str">
-        <f>CONCATENATE(B3,"_",L3,"_",O3)</f>
+        <f t="shared" ref="A3:A12" si="0">CONCATENATE(B3,"_",L3,"_",O3)</f>
         <v>phyarm_up_3_building_hero_ursa</v>
       </c>
       <c r="B3" t="s">
@@ -1754,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D38" si="0">CONCATENATE(B3,"_",L3)</f>
+        <f t="shared" ref="D3:D38" si="1">CONCATENATE(B3,"_",L3)</f>
         <v>phyarm_up_3</v>
       </c>
       <c r="E3" t="s">
@@ -1795,9 +1792,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:17">
+    <row r="4" ht="15.75" spans="1:17">
       <c r="A4" s="10" t="str">
-        <f>CONCATENATE(B4,"_",L4,"_",O4)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_ursa</v>
       </c>
       <c r="B4" t="s">
@@ -1807,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K4" s="5">
@@ -1828,9 +1825,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:17">
+    <row r="5" ht="15.75" spans="1:17">
       <c r="A5" s="10" t="str">
-        <f>CONCATENATE(B5,"_",L5,"_",O5)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_ursa</v>
       </c>
       <c r="B5" t="s">
@@ -1840,7 +1837,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K5" s="5">
@@ -1861,9 +1858,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="15.5" spans="1:17">
+    <row r="6" ht="15.75" spans="1:17">
       <c r="A6" s="10" t="str">
-        <f>CONCATENATE(B6,"_",L6,"_",O6)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_kunkka</v>
       </c>
       <c r="B6" t="s">
@@ -1873,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K6" s="9">
@@ -1896,9 +1893,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" ht="15.5" spans="1:17">
+    <row r="7" ht="15.75" spans="1:17">
       <c r="A7" s="10" t="str">
-        <f>CONCATENATE(B7,"_",L7,"_",O7)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_kunkka</v>
       </c>
       <c r="B7" t="s">
@@ -1908,7 +1905,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K7" s="9">
@@ -1929,9 +1926,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:17">
+    <row r="8" ht="15.75" spans="1:17">
       <c r="A8" s="10" t="str">
-        <f>CONCATENATE(B8,"_",L8,"_",O8)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_kunkka</v>
       </c>
       <c r="B8" t="s">
@@ -1941,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K8" s="9">
@@ -1962,9 +1959,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="1:17">
+    <row r="9" ht="15.75" spans="1:17">
       <c r="A9" s="10" t="str">
-        <f>CONCATENATE(B9,"_",L9,"_",O9)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_tusk</v>
       </c>
       <c r="B9" t="s">
@@ -1974,7 +1971,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K9" s="9">
@@ -1997,9 +1994,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:17">
+    <row r="10" ht="15.75" spans="1:17">
       <c r="A10" s="10" t="str">
-        <f>CONCATENATE(B10,"_",L10,"_",O10)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_tusk</v>
       </c>
       <c r="B10" t="s">
@@ -2009,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K10" s="9">
@@ -2030,9 +2027,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:17">
+    <row r="11" ht="15.75" spans="1:17">
       <c r="A11" s="10" t="str">
-        <f>CONCATENATE(B11,"_",L11,"_",O11)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_tusk</v>
       </c>
       <c r="B11" t="s">
@@ -2042,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K11" s="9">
@@ -2063,9 +2060,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="15.5" spans="1:17">
+    <row r="12" ht="15.75" spans="1:17">
       <c r="A12" s="10" t="str">
-        <f>CONCATENATE(B12,"_",L12,"_",O12)</f>
+        <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_axe</v>
       </c>
       <c r="B12" t="s">
@@ -2075,11 +2072,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" ref="K12:K41" si="1">K9+1</f>
+        <f t="shared" ref="K12:K41" si="2">K9+1</f>
         <v>4</v>
       </c>
       <c r="L12" s="5">
@@ -2098,9 +2095,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="15.5" spans="1:17">
+    <row r="13" ht="15.75" spans="1:17">
       <c r="A13" s="10" t="str">
-        <f t="shared" ref="A13:A38" si="2">CONCATENATE(B13,"_",L13,"_",O13)</f>
+        <f t="shared" ref="A13:A38" si="3">CONCATENATE(B13,"_",L13,"_",O13)</f>
         <v>phyarm_up_6_building_hero_axe</v>
       </c>
       <c r="B13" t="s">
@@ -2110,11 +2107,11 @@
         <v>27</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L13" s="5">
@@ -2131,9 +2128,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="15.5" spans="1:17">
+    <row r="14" ht="15.75" spans="1:17">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_axe</v>
       </c>
       <c r="B14" t="s">
@@ -2143,11 +2140,11 @@
         <v>27</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L14" s="5">
@@ -2164,9 +2161,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:17">
+    <row r="15" ht="15.75" spans="1:17">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_juggernaut</v>
       </c>
       <c r="B15" t="s">
@@ -2176,11 +2173,11 @@
         <v>27</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L15" s="5">
@@ -2199,9 +2196,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="15.5" spans="1:17">
+    <row r="16" ht="15.75" spans="1:17">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_juggernaut</v>
       </c>
       <c r="B16" t="s">
@@ -2211,11 +2208,11 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L16" s="5">
@@ -2232,9 +2229,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="15.5" spans="1:17">
+    <row r="17" ht="15.75" spans="1:17">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_juggernaut</v>
       </c>
       <c r="B17" t="s">
@@ -2244,11 +2241,11 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L17" s="5">
@@ -2265,9 +2262,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="15.5" spans="1:17">
+    <row r="18" ht="15.75" spans="1:17">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_troll_warlord</v>
       </c>
       <c r="B18" t="s">
@@ -2277,11 +2274,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L18" s="5">
@@ -2300,9 +2297,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:17">
+    <row r="19" ht="15.75" spans="1:17">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_troll_warlord</v>
       </c>
       <c r="B19" t="s">
@@ -2312,11 +2309,11 @@
         <v>27</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L19" s="5">
@@ -2333,9 +2330,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:17">
+    <row r="20" ht="15.75" spans="1:17">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_troll_warlord</v>
       </c>
       <c r="B20" t="s">
@@ -2345,11 +2342,11 @@
         <v>27</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L20" s="5">
@@ -2366,9 +2363,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:17">
+    <row r="21" ht="15.75" spans="1:17">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_slardar</v>
       </c>
       <c r="B21" t="s">
@@ -2378,11 +2375,11 @@
         <v>27</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L21" s="5">
@@ -2402,9 +2399,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="15.5" spans="1:17">
+    <row r="22" ht="15.75" spans="1:17">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_slardar</v>
       </c>
       <c r="B22" t="s">
@@ -2414,11 +2411,11 @@
         <v>27</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L22" s="5">
@@ -2436,9 +2433,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:17">
+    <row r="23" ht="15.75" spans="1:17">
       <c r="A23" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_slardar</v>
       </c>
       <c r="B23" t="s">
@@ -2448,11 +2445,11 @@
         <v>27</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L23" s="5">
@@ -2470,9 +2467,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" ht="15.5" spans="1:17">
+    <row r="24" ht="15.75" spans="1:17">
       <c r="A24" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_sven</v>
       </c>
       <c r="B24" t="s">
@@ -2482,11 +2479,11 @@
         <v>27</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L24" s="5">
@@ -2506,9 +2503,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" ht="15.5" spans="1:17">
+    <row r="25" ht="15.75" spans="1:17">
       <c r="A25" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_sven</v>
       </c>
       <c r="B25" t="s">
@@ -2518,11 +2515,11 @@
         <v>27</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L25" s="5">
@@ -2540,9 +2537,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" ht="15.5" spans="1:17">
+    <row r="26" ht="15.75" spans="1:17">
       <c r="A26" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_sven</v>
       </c>
       <c r="B26" t="s">
@@ -2552,11 +2549,11 @@
         <v>27</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L26" s="5">
@@ -2574,9 +2571,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="15.5" spans="1:17">
+    <row r="27" ht="15.75" spans="1:17">
       <c r="A27" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_mars</v>
       </c>
       <c r="B27" t="s">
@@ -2586,11 +2583,11 @@
         <v>27</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L27" s="5">
@@ -2610,9 +2607,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:17">
+    <row r="28" ht="15.75" spans="1:17">
       <c r="A28" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_mars</v>
       </c>
       <c r="B28" t="s">
@@ -2622,11 +2619,11 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L28" s="5">
@@ -2644,9 +2641,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:17">
+    <row r="29" ht="15.75" spans="1:17">
       <c r="A29" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_mars</v>
       </c>
       <c r="B29" t="s">
@@ -2656,11 +2653,11 @@
         <v>27</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L29" s="5">
@@ -2678,9 +2675,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:17">
+    <row r="30" ht="15.75" spans="1:17">
       <c r="A30" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_primal_beast</v>
       </c>
       <c r="B30" t="s">
@@ -2690,11 +2687,11 @@
         <v>27</v>
       </c>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L30" s="5">
@@ -2714,9 +2711,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" ht="15.5" spans="1:17">
+    <row r="31" ht="15.75" spans="1:17">
       <c r="A31" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_primal_beast</v>
       </c>
       <c r="B31" t="s">
@@ -2726,11 +2723,11 @@
         <v>27</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L31" s="5">
@@ -2748,9 +2745,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:17">
+    <row r="32" ht="15.75" spans="1:17">
       <c r="A32" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_primal_beast</v>
       </c>
       <c r="B32" t="s">
@@ -2760,11 +2757,11 @@
         <v>27</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L32" s="5">
@@ -2782,9 +2779,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:17">
+    <row r="33" ht="15.75" spans="1:17">
       <c r="A33" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_skeleton_king</v>
       </c>
       <c r="B33" t="s">
@@ -2794,11 +2791,11 @@
         <v>27</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L33" s="5">
@@ -2818,9 +2815,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="15.5" spans="1:17">
+    <row r="34" ht="15.75" spans="1:17">
       <c r="A34" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_skeleton_king</v>
       </c>
       <c r="B34" t="s">
@@ -2830,11 +2827,11 @@
         <v>27</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L34" s="5">
@@ -2852,9 +2849,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="15.5" spans="1:17">
+    <row r="35" ht="15.75" spans="1:17">
       <c r="A35" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_skeleton_king</v>
       </c>
       <c r="B35" t="s">
@@ -2864,11 +2861,11 @@
         <v>27</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L35" s="5">
@@ -2886,9 +2883,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" ht="15.5" spans="1:17">
+    <row r="36" ht="15.75" spans="1:17">
       <c r="A36" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_pudge</v>
       </c>
       <c r="B36" t="s">
@@ -2898,11 +2895,11 @@
         <v>27</v>
       </c>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_3</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L36" s="5">
@@ -2922,9 +2919,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" ht="15.5" spans="1:17">
+    <row r="37" ht="15.75" spans="1:17">
       <c r="A37" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_pudge</v>
       </c>
       <c r="B37" t="s">
@@ -2934,11 +2931,11 @@
         <v>27</v>
       </c>
       <c r="D37" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_6</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L37" s="5">
@@ -2956,9 +2953,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:17">
+    <row r="38" ht="15.75" spans="1:17">
       <c r="A38" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_pudge</v>
       </c>
       <c r="B38" t="s">
@@ -2968,11 +2965,11 @@
         <v>27</v>
       </c>
       <c r="D38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phyarm_up_9</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L38" s="5">
@@ -3016,10 +3013,10 @@
   <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="3" width="19.75" customWidth="1"/>
@@ -3062,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>12</v>
@@ -3070,10 +3067,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -3108,51 +3105,51 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -4148,48 +4145,48 @@
       <selection activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <sheetData>
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>32</v>
@@ -4197,13 +4194,13 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>37</v>
@@ -4211,13 +4208,13 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>40</v>
@@ -4228,21 +4225,21 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>46</v>
@@ -4250,13 +4247,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>49</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -4275,27 +4272,27 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>58</v>
@@ -4303,13 +4300,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>61</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>64</v>
@@ -4328,13 +4325,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>67</v>
@@ -4342,441 +4339,441 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_combination_ability.xlsx
+++ b/code/excels/building/building_combination_ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="187">
   <si>
     <t>效果id</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>phyarm_up</t>
-  </si>
-  <si>
-    <t>warframe</t>
   </si>
   <si>
     <t>加甲流</t>
@@ -1614,11 +1611,11 @@
   <sheetPr/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="35.3333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
@@ -1739,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:17">
+    <row r="3" ht="15.5" spans="1:17">
       <c r="A3" s="10" t="str">
         <f t="shared" ref="A3:A12" si="0">CONCATENATE(B3,"_",L3,"_",O3)</f>
         <v>phyarm_up_3_building_hero_ursa</v>
@@ -1747,30 +1744,30 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D38" si="1">CONCATENATE(B3,"_",L3)</f>
         <v>phyarm_up_3</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
@@ -1779,20 +1776,20 @@
         <v>3</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:17">
+    </row>
+    <row r="4" ht="15.5" spans="1:17">
       <c r="A4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_ursa</v>
@@ -1800,8 +1797,8 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1814,18 +1811,18 @@
         <v>6</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" spans="1:17">
       <c r="A5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_ursa</v>
@@ -1833,8 +1830,8 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
+      <c r="C5" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1847,18 +1844,18 @@
         <v>9</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="15.5" spans="1:17">
       <c r="A6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_kunkka</v>
@@ -1866,8 +1863,8 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1880,20 +1877,20 @@
         <v>3</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:17">
+    </row>
+    <row r="7" ht="15.5" spans="1:17">
       <c r="A7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_kunkka</v>
@@ -1901,8 +1898,8 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1915,18 +1912,18 @@
         <v>6</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" spans="1:17">
       <c r="A8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_kunkka</v>
@@ -1934,8 +1931,8 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1948,18 +1945,18 @@
         <v>9</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" spans="1:17">
       <c r="A9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_tusk</v>
@@ -1967,8 +1964,8 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1981,20 +1978,20 @@
         <v>3</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:17">
+    </row>
+    <row r="10" ht="15.5" spans="1:17">
       <c r="A10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_6_building_hero_tusk</v>
@@ -2002,8 +1999,8 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2016,18 +2013,18 @@
         <v>6</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" spans="1:17">
       <c r="A11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_9_building_hero_tusk</v>
@@ -2035,8 +2032,8 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2049,18 +2046,18 @@
         <v>9</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" spans="1:17">
       <c r="A12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>phyarm_up_3_building_hero_axe</v>
@@ -2068,8 +2065,8 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2083,19 +2080,19 @@
         <v>3</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:17">
+    </row>
+    <row r="13" ht="15.5" spans="1:17">
       <c r="A13" s="10" t="str">
         <f t="shared" ref="A13:A38" si="3">CONCATENATE(B13,"_",L13,"_",O13)</f>
         <v>phyarm_up_6_building_hero_axe</v>
@@ -2103,8 +2100,8 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2118,17 +2115,17 @@
         <v>6</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="1:17">
       <c r="A14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_axe</v>
@@ -2136,8 +2133,8 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2151,17 +2148,17 @@
         <v>9</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" spans="1:17">
       <c r="A15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_juggernaut</v>
@@ -2169,8 +2166,8 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2184,19 +2181,19 @@
         <v>3</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:17">
+    </row>
+    <row r="16" ht="15.5" spans="1:17">
       <c r="A16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_juggernaut</v>
@@ -2204,8 +2201,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
+      <c r="C16" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2219,17 +2216,17 @@
         <v>6</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:17">
       <c r="A17" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_juggernaut</v>
@@ -2237,8 +2234,8 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2252,17 +2249,17 @@
         <v>9</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" ht="15.5" spans="1:17">
       <c r="A18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_troll_warlord</v>
@@ -2270,8 +2267,8 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
+      <c r="C18" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2285,19 +2282,19 @@
         <v>3</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:17">
+    </row>
+    <row r="19" ht="15.5" spans="1:17">
       <c r="A19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_troll_warlord</v>
@@ -2305,8 +2302,8 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
+      <c r="C19" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2320,17 +2317,17 @@
         <v>6</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="15.5" spans="1:17">
       <c r="A20" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_troll_warlord</v>
@@ -2338,8 +2335,8 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>27</v>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2353,17 +2350,17 @@
         <v>9</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="15.5" spans="1:17">
       <c r="A21" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_slardar</v>
@@ -2371,8 +2368,8 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2386,20 +2383,20 @@
         <v>3</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="Q21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:17">
+    </row>
+    <row r="22" ht="15.5" spans="1:17">
       <c r="A22" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_slardar</v>
@@ -2407,8 +2404,8 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>27</v>
+      <c r="C22" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2422,18 +2419,18 @@
         <v>6</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:17">
       <c r="A23" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_slardar</v>
@@ -2441,8 +2438,8 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>27</v>
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2456,18 +2453,18 @@
         <v>9</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" spans="1:17">
       <c r="A24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_sven</v>
@@ -2475,8 +2472,8 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
+      <c r="C24" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2490,20 +2487,20 @@
         <v>3</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="Q24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:17">
+    </row>
+    <row r="25" ht="15.5" spans="1:17">
       <c r="A25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_sven</v>
@@ -2511,8 +2508,8 @@
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
+      <c r="C25" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2526,18 +2523,18 @@
         <v>6</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:17">
       <c r="A26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_sven</v>
@@ -2545,8 +2542,8 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>27</v>
+      <c r="C26" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2560,18 +2557,18 @@
         <v>9</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:17">
       <c r="A27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_mars</v>
@@ -2579,8 +2576,8 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>27</v>
+      <c r="C27" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2594,20 +2591,20 @@
         <v>3</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="Q27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Q27" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:17">
+    </row>
+    <row r="28" ht="15.5" spans="1:17">
       <c r="A28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_mars</v>
@@ -2615,8 +2612,8 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
+      <c r="C28" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2630,18 +2627,18 @@
         <v>6</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:17">
       <c r="A29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_mars</v>
@@ -2649,8 +2646,8 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>27</v>
+      <c r="C29" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2664,18 +2661,18 @@
         <v>9</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:17">
       <c r="A30" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_primal_beast</v>
@@ -2683,8 +2680,8 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>27</v>
+      <c r="C30" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2698,20 +2695,20 @@
         <v>3</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="Q30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="1:17">
+    </row>
+    <row r="31" ht="15.5" spans="1:17">
       <c r="A31" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_primal_beast</v>
@@ -2719,8 +2716,8 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>27</v>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2734,18 +2731,18 @@
         <v>6</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="1:17">
       <c r="A32" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_primal_beast</v>
@@ -2753,8 +2750,8 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>27</v>
+      <c r="C32" t="s">
+        <v>26</v>
       </c>
       <c r="D32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2768,18 +2765,18 @@
         <v>9</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" spans="1:17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:17">
       <c r="A33" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_skeleton_king</v>
@@ -2787,8 +2784,8 @@
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
+      <c r="C33" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2802,20 +2799,20 @@
         <v>3</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="Q33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q33" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" spans="1:17">
+    </row>
+    <row r="34" ht="15.5" spans="1:17">
       <c r="A34" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_skeleton_king</v>
@@ -2823,8 +2820,8 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>27</v>
+      <c r="C34" t="s">
+        <v>26</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2838,18 +2835,18 @@
         <v>6</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" spans="1:17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="1:17">
       <c r="A35" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_skeleton_king</v>
@@ -2857,8 +2854,8 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>27</v>
+      <c r="C35" t="s">
+        <v>26</v>
       </c>
       <c r="D35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2872,18 +2869,18 @@
         <v>9</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="1:17">
       <c r="A36" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_3_building_hero_pudge</v>
@@ -2891,8 +2888,8 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>27</v>
+      <c r="C36" t="s">
+        <v>26</v>
       </c>
       <c r="D36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2906,20 +2903,20 @@
         <v>3</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="Q36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q36" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" spans="1:17">
+    </row>
+    <row r="37" ht="15.5" spans="1:17">
       <c r="A37" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_6_building_hero_pudge</v>
@@ -2927,8 +2924,8 @@
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
+      <c r="C37" t="s">
+        <v>26</v>
       </c>
       <c r="D37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2942,18 +2939,18 @@
         <v>6</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" spans="1:17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="1:17">
       <c r="A38" s="10" t="str">
         <f t="shared" si="3"/>
         <v>phyarm_up_9_building_hero_pudge</v>
@@ -2961,8 +2958,8 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>27</v>
+      <c r="C38" t="s">
+        <v>26</v>
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2976,15 +2973,15 @@
         <v>9</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3013,7 @@
       <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="3" width="19.75" customWidth="1"/>
@@ -3029,10 +3026,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -3067,10 +3064,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -3105,51 +3102,51 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -4145,79 +4142,79 @@
       <selection activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
     <row r="2" hidden="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" hidden="1"/>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="8:8">
@@ -4225,91 +4222,91 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" hidden="1" spans="8:8">
       <c r="H23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="8:8">
@@ -4317,463 +4314,463 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" hidden="1"/>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" hidden="1"/>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" hidden="1"/>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" hidden="1"/>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" hidden="1"/>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" hidden="1"/>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" hidden="1"/>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" hidden="1"/>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" hidden="1"/>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" hidden="1"/>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" hidden="1"/>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" hidden="1"/>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" hidden="1"/>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" hidden="1"/>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" hidden="1"/>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" hidden="1"/>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" hidden="1"/>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" hidden="1"/>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" hidden="1"/>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" hidden="1"/>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" hidden="1"/>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" hidden="1"/>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" hidden="1"/>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" hidden="1"/>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" hidden="1"/>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" hidden="1"/>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" hidden="1"/>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" hidden="1"/>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" hidden="1"/>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" hidden="1"/>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" hidden="1"/>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" hidden="1"/>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" hidden="1"/>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" hidden="1"/>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" hidden="1"/>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" hidden="1"/>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" hidden="1"/>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
